--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="77">
   <si>
     <t>Profile</t>
   </si>
@@ -146,6 +146,18 @@
     <t>SNOMED CT#260295004</t>
   </si>
   <si>
+    <t>observation-elm-disruption</t>
+  </si>
+  <si>
+    <t>ELM disruption</t>
+  </si>
+  <si>
+    <t>SNOMED CT#76710003</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
     <t>observation-visual-acuity</t>
   </si>
   <si>
@@ -156,9 +168,6 @@
   </si>
   <si>
     <t>https://eyematics.org/fhir/eyematics-kds/ValueSet/va-code (preferred)</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, Ratioĵ</t>
@@ -367,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -740,13 +749,13 @@
         <v>46</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="H11" t="s" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -760,13 +769,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
@@ -775,13 +784,13 @@
         <v>50</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -798,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>14</v>
@@ -807,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -833,7 +842,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>14</v>
@@ -842,7 +851,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
@@ -851,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -868,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>14</v>
@@ -877,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -886,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -903,7 +912,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -912,7 +921,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -938,7 +947,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>14</v>
@@ -947,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
@@ -973,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>14</v>
@@ -982,7 +991,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
@@ -1005,28 +1014,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1040,10 +1049,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1052,16 +1061,16 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>21</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
@@ -1096,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1122,16 +1131,16 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1157,16 +1166,16 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>21</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1192,24 +1201,59 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="I24" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K24" t="s" s="2">
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="80">
   <si>
     <t>Profile</t>
   </si>
@@ -47,10 +47,10 @@
     <t>Method</t>
   </si>
   <si>
-    <t>OCTbinaryBiomarker</t>
-  </si>
-  <si>
-    <t>OCT Binary Biomarker</t>
+    <t>oct-dril</t>
+  </si>
+  <si>
+    <t>OCT Biomarker DRIL</t>
   </si>
   <si>
     <t>Observation Category Codes#exam</t>
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>https://eyematics.org/fhir/eyematics-kds-extended/ValueSet/oct-binary-bm-code (preferred)</t>
+    <t>OCT Biomarker#DRIL</t>
   </si>
   <si>
     <t>dateTimeĵ</t>
@@ -71,6 +71,24 @@
     <t>optional</t>
   </si>
   <si>
+    <t>observation-elm-disruption</t>
+  </si>
+  <si>
+    <t>ELM disruption</t>
+  </si>
+  <si>
+    <t>SNOMED CT#76710003</t>
+  </si>
+  <si>
+    <t>oct-hrf</t>
+  </si>
+  <si>
+    <t>OCT Biomarker HRF</t>
+  </si>
+  <si>
+    <t>OCT Biomarker#HRF</t>
+  </si>
+  <si>
     <t>Angiography</t>
   </si>
   <si>
@@ -146,28 +164,19 @@
     <t>SNOMED CT#260295004</t>
   </si>
   <si>
-    <t>observation-elm-disruption</t>
-  </si>
-  <si>
-    <t>ELM disruption</t>
-  </si>
-  <si>
-    <t>SNOMED CT#76710003</t>
+    <t>observation-visual-acuity</t>
+  </si>
+  <si>
+    <t>Visual Acuity (VA)</t>
+  </si>
+  <si>
+    <t>null#260246004</t>
+  </si>
+  <si>
+    <t>https://eyematics.org/fhir/eyematics-kds/ValueSet/va-code (preferred)</t>
   </si>
   <si>
     <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>observation-visual-acuity</t>
-  </si>
-  <si>
-    <t>Visual Acuity (VA)</t>
-  </si>
-  <si>
-    <t>null#260246004</t>
-  </si>
-  <si>
-    <t>https://eyematics.org/fhir/eyematics-kds/ValueSet/va-code (preferred)</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, Ratioĵ</t>
@@ -376,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -431,10 +440,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -457,7 +466,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>13</v>
@@ -466,16 +475,16 @@
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -489,22 +498,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="F4" t="s" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>16</v>
@@ -524,28 +533,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="F5" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
+      <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -574,13 +583,13 @@
         <v>31</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -594,28 +603,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -644,13 +653,13 @@
         <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -664,28 +673,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="2">
+      <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -705,7 +714,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
@@ -714,7 +723,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>16</v>
@@ -749,13 +758,13 @@
         <v>46</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -769,28 +778,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="C12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -804,28 +813,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G13" t="s" s="2">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -842,7 +851,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>14</v>
@@ -851,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
@@ -860,7 +869,7 @@
         <v>14</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -877,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>14</v>
@@ -886,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -895,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -912,7 +921,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -921,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -930,7 +939,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -947,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>14</v>
@@ -956,7 +965,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
@@ -965,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -982,7 +991,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>14</v>
@@ -991,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
@@ -1000,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1017,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>14</v>
@@ -1026,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1035,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1049,28 +1058,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
@@ -1084,10 +1093,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1096,16 +1105,16 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1134,13 +1143,13 @@
         <v>67</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1166,16 +1175,16 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1201,16 +1210,16 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>21</v>
-      </c>
       <c r="G24" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1236,16 +1245,16 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1254,6 +1263,41 @@
         <v>14</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="83">
   <si>
     <t>Profile</t>
   </si>
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>OCT Biomarker#DRIL</t>
+    <t>oct-biomarker#DRIL</t>
   </si>
   <si>
     <t>dateTimeĵ</t>
@@ -86,7 +86,16 @@
     <t>OCT Biomarker HRF</t>
   </si>
   <si>
-    <t>OCT Biomarker#HRF</t>
+    <t>oct-biomarker#HRF</t>
+  </si>
+  <si>
+    <t>oct-vmt</t>
+  </si>
+  <si>
+    <t>OCT Biomarker VMT</t>
+  </si>
+  <si>
+    <t>oct-biomarker#VMT</t>
   </si>
   <si>
     <t>Angiography</t>
@@ -385,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -536,7 +545,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>13</v>
@@ -545,16 +554,16 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -568,28 +577,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="F6" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -618,7 +627,7 @@
         <v>34</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>16</v>
@@ -653,13 +662,13 @@
         <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -673,28 +682,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -708,28 +717,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="2">
+      <c r="F10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -758,7 +767,7 @@
         <v>46</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>16</v>
@@ -784,7 +793,7 @@
         <v>48</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
@@ -793,7 +802,7 @@
         <v>49</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>16</v>
@@ -819,7 +828,7 @@
         <v>51</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
@@ -828,13 +837,13 @@
         <v>52</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -848,28 +857,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G14" t="s" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -886,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>14</v>
@@ -895,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -904,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -921,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -930,7 +939,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -939,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -956,7 +965,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>14</v>
@@ -965,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
@@ -974,7 +983,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -991,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>14</v>
@@ -1000,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
@@ -1009,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1026,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>14</v>
@@ -1035,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1044,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1061,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1070,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1079,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
@@ -1093,28 +1102,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1128,10 +1137,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1140,16 +1149,16 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1178,13 +1187,13 @@
         <v>70</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1210,16 +1219,16 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1245,16 +1254,16 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>27</v>
-      </c>
       <c r="G25" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1280,16 +1289,16 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1298,6 +1307,41 @@
         <v>14</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="86">
   <si>
     <t>Profile</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>SNOMED CT#76710003</t>
+  </si>
+  <si>
+    <t>observation-ze</t>
+  </si>
+  <si>
+    <t>Ellipsoid zone disruption</t>
+  </si>
+  <si>
+    <t>oct-biomarker#EZ</t>
   </si>
   <si>
     <t>oct-hrf</t>
@@ -394,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -580,7 +589,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>13</v>
@@ -589,16 +598,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -612,28 +621,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="F7" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
+      <c r="G7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -662,7 +671,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>16</v>
@@ -697,13 +706,13 @@
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -717,28 +726,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -752,28 +761,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
+      <c r="F11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -802,7 +811,7 @@
         <v>49</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>16</v>
@@ -828,7 +837,7 @@
         <v>51</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
@@ -837,7 +846,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>16</v>
@@ -863,7 +872,7 @@
         <v>54</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
@@ -872,13 +881,13 @@
         <v>55</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -892,28 +901,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G15" t="s" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -930,7 +939,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -939,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -948,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -965,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>14</v>
@@ -974,7 +983,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
@@ -983,7 +992,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -1000,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>14</v>
@@ -1009,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
@@ -1018,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1035,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>14</v>
@@ -1044,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1053,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1070,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1079,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1088,7 +1097,7 @@
         <v>14</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
@@ -1105,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1114,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1123,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1137,28 +1146,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1172,10 +1181,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1184,16 +1193,16 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1222,13 +1231,13 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1254,16 +1263,16 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1289,16 +1298,16 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="G26" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1324,16 +1333,16 @@
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1342,6 +1351,41 @@
         <v>14</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="89">
   <si>
     <t>Profile</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>oct-biomarker#HRF</t>
+  </si>
+  <si>
+    <t>observation-rpe-disruption</t>
+  </si>
+  <si>
+    <t>RPE disruption</t>
+  </si>
+  <si>
+    <t>SNOMED CT#41275009</t>
   </si>
   <si>
     <t>oct-vmt</t>
@@ -403,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -624,7 +633,7 @@
         <v>31</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>13</v>
@@ -633,16 +642,16 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -656,28 +665,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="F8" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="2">
+      <c r="G8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -706,7 +715,7 @@
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>16</v>
@@ -741,13 +750,13 @@
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -761,28 +770,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -796,28 +805,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
+      <c r="F12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -846,7 +855,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>16</v>
@@ -872,7 +881,7 @@
         <v>54</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
@@ -881,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>16</v>
@@ -907,7 +916,7 @@
         <v>57</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>14</v>
@@ -916,13 +925,13 @@
         <v>58</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -936,28 +945,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G16" t="s" s="2">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -974,7 +983,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>14</v>
@@ -983,7 +992,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
@@ -992,7 +1001,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -1009,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>14</v>
@@ -1018,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
@@ -1027,7 +1036,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1044,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>14</v>
@@ -1053,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1062,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1079,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1088,7 +1097,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1097,7 +1106,7 @@
         <v>14</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
@@ -1114,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1123,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1132,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1149,7 +1158,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1158,7 +1167,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>14</v>
@@ -1167,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1181,28 +1190,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1216,10 +1225,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1228,16 +1237,16 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1266,13 +1275,13 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1298,16 +1307,16 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1333,16 +1342,16 @@
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>33</v>
-      </c>
       <c r="G27" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1368,16 +1377,16 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1386,6 +1395,41 @@
         <v>14</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>14</v>
       </c>
     </row>
